--- a/medicine/Psychotrope/Cannstatter_Volksfest/Cannstatter_Volksfest.xlsx
+++ b/medicine/Psychotrope/Cannstatter_Volksfest/Cannstatter_Volksfest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cannstatter Volksfest (parfois appelée Cannstatter Wasen ou Wasen) est une fête foraine allemande d'une durée de deux semaines et qui se déroule de fin septembre à début octobre à Stuttgart sur la Cannstatter Wasen dans le quartier de Bad Cannstatt. Son équivalent printanier est la Stuttgarter Frühlingsfest.
 La superficie de la Cannstatter Wasen est d'environ 35 hectares. La fête débute en général une semaine après sa concurrente munichoise : l'Oktoberfest et un mois après la fête du vin de Stuttgart.
